--- a/cea/databases/DE/assemblies/SUPPLY.xlsx
+++ b/cea/databases/DE/assemblies/SUPPLY.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6125F35B-4620-44B7-8E6C-9EE7A6902443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HEATING" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="HOT_WATER" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="COOLING" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ELECTRICITY" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="HEATING" sheetId="1" r:id="rId1"/>
+    <sheet name="HOT_WATER" sheetId="2" r:id="rId2"/>
+    <sheet name="COOLING" sheetId="3" r:id="rId3"/>
+    <sheet name="ELECTRICITY" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,25 +45,13 @@
     <author>tc={B4F5AB91-6F7C-483D-A592-89102691FFFB}</author>
   </authors>
   <commentList>
-    <comment ref="A33" authorId="0" xr:uid="{B4F5AB91-6F7C-483D-A592-89102691FFFB}">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{B4F5AB91-6F7C-483D-A592-89102691FFFB}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Jimeno Fonseca:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -56,25 +64,13 @@
     <author>tc={003A11DB-1C47-4897-99B3-6450868F736D}</author>
   </authors>
   <commentList>
-    <comment ref="A33" authorId="0" xr:uid="{003A11DB-1C47-4897-99B3-6450868F736D}">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{003A11DB-1C47-4897-99B3-6450868F736D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Jimeno Fonseca:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -82,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="151">
   <si>
     <t>Description</t>
   </si>
@@ -123,10 +119,10 @@
     <t>NONE</t>
   </si>
   <si>
-    <t xml:space="preserve">educated guess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil-fired boiler - Konstanttemperaturkessel - 10 kW</t>
+    <t>educated guess</t>
+  </si>
+  <si>
+    <t>oil-fired boiler - Konstanttemperaturkessel - 10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS1</t>
@@ -138,58 +134,58 @@
     <t>BUILDING</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.effizienzhaus-online.de/lexikon/wirkungsgrad/, KEA Technikkatalog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil-fired boiler - Konstanttemperaturkessel - 50 kW</t>
+    <t>https://www.effizienzhaus-online.de/lexikon/wirkungsgrad/, KEA Technikkatalog</t>
+  </si>
+  <si>
+    <t>oil-fired boiler - Konstanttemperaturkessel - 50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS2</t>
   </si>
   <si>
-    <t xml:space="preserve">oil-fired boiler - Konstanttemperaturkessel - 100 kW</t>
+    <t>oil-fired boiler - Konstanttemperaturkessel - 100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS3</t>
   </si>
   <si>
-    <t xml:space="preserve">oil-fired boiler - Niedertemperaturkessel - 10 kW</t>
+    <t>oil-fired boiler - Niedertemperaturkessel - 10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS4</t>
   </si>
   <si>
-    <t xml:space="preserve">oil-fired boiler - Niedertemperaturkessel -  50 kW</t>
+    <t>oil-fired boiler - Niedertemperaturkessel -  50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS5</t>
   </si>
   <si>
-    <t xml:space="preserve">oil-fired boiler - Niedertemperaturkessel - 100 kW</t>
+    <t>oil-fired boiler - Niedertemperaturkessel - 100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS6</t>
   </si>
   <si>
-    <t xml:space="preserve">oil-fired boiler  - Brennwertgerät -  10 kW</t>
+    <t>oil-fired boiler  - Brennwertgerät -  10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS7</t>
   </si>
   <si>
-    <t xml:space="preserve">oil-fired boiler  - Brennwertgerät -  50 kW</t>
+    <t>oil-fired boiler  - Brennwertgerät -  50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS8</t>
   </si>
   <si>
-    <t xml:space="preserve">oil-fired boiler  - Brennwertgerät -  100 kW</t>
+    <t>oil-fired boiler  - Brennwertgerät -  100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS9</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas-fired boiler - Konstanttemperaturkessel - 10 kW</t>
+    <t>natural gas-fired boiler - Konstanttemperaturkessel - 10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS10</t>
@@ -198,55 +194,55 @@
     <t>NATURALGAS</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas-fired boiler - Konstanttemperaturkessel - 50 kW</t>
+    <t>natural gas-fired boiler - Konstanttemperaturkessel - 50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS11</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas-fired boiler - Konstanttemperaturkessel - 100 kW</t>
+    <t>natural gas-fired boiler - Konstanttemperaturkessel - 100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS12</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas-fired boiler - Niedertemperaturkessel - 10 kW</t>
+    <t>natural gas-fired boiler - Niedertemperaturkessel - 10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS13</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas-fired boiler - Niedertemperaturkessel - 50 kW</t>
+    <t>natural gas-fired boiler - Niedertemperaturkessel - 50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS14</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas-fired boiler - Niedertemperaturkessel - 100 kW</t>
+    <t>natural gas-fired boiler - Niedertemperaturkessel - 100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS15</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas-fired boiler  - Brennwertgerät - 10 kW</t>
+    <t>natural gas-fired boiler  - Brennwertgerät - 10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS16</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas- boiler  - Brennwertgerät - 50 kW</t>
+    <t>natural gas- boiler  - Brennwertgerät - 50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS17</t>
   </si>
   <si>
-    <t xml:space="preserve">natural gas-fired boiler  - Brennwertgerät -  100 kW</t>
+    <t>natural gas-fired boiler  - Brennwertgerät -  100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS18</t>
   </si>
   <si>
-    <t xml:space="preserve">biomass boiler - 10 kW</t>
+    <t>biomass boiler - 10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS19</t>
@@ -255,22 +251,22 @@
     <t>WETBIOMASS</t>
   </si>
   <si>
-    <t xml:space="preserve">KEA Technikatalog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass boiler - 50 kW</t>
+    <t>KEA Technikatalog</t>
+  </si>
+  <si>
+    <t>biomass boiler - 50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS20</t>
   </si>
   <si>
-    <t xml:space="preserve">biomass boiler - 100 kW</t>
+    <t>biomass boiler - 100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS21</t>
   </si>
   <si>
-    <t xml:space="preserve">heatpump  soil/water - 10 kW</t>
+    <t>heatpump  soil/water - 10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS22</t>
@@ -279,55 +275,55 @@
     <t>GRID</t>
   </si>
   <si>
-    <t xml:space="preserve">Technologiesteckbriefe: https://energy.ec.europa.eu/system/files/2021-01/de_ca_2020_de_0.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heatpump  soil/water - 50 kW</t>
+    <t>Technologiesteckbriefe: https://energy.ec.europa.eu/system/files/2021-01/de_ca_2020_de_0.pdf</t>
+  </si>
+  <si>
+    <t>heatpump  soil/water - 50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS23</t>
   </si>
   <si>
-    <t xml:space="preserve">heatpump  soil/water - 100 kW</t>
+    <t>heatpump  soil/water - 100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS24</t>
   </si>
   <si>
-    <t xml:space="preserve">heatpump  air/water -  10 kW</t>
+    <t>heatpump  air/water -  10 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS25</t>
   </si>
   <si>
-    <t xml:space="preserve">heatpump  air/water -  50 kW</t>
+    <t>heatpump  air/water -  50 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS26</t>
   </si>
   <si>
-    <t xml:space="preserve">heatpump  air/water -  100 kW</t>
+    <t>heatpump  air/water -  100 kW</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS27</t>
   </si>
   <si>
-    <t xml:space="preserve">heatpump - air/air</t>
+    <t>heatpump - air/air</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS28</t>
   </si>
   <si>
-    <t xml:space="preserve">from CEA Switzerland, adjustments required, educated guess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heatpump - water/water</t>
+    <t>from CEA Switzerland, adjustments required, educated guess</t>
+  </si>
+  <si>
+    <t>heatpump - water/water</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS29</t>
   </si>
   <si>
-    <t xml:space="preserve">coal-fired furnace</t>
+    <t>coal-fired furnace</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS30</t>
@@ -336,16 +332,16 @@
     <t>COAL</t>
   </si>
   <si>
-    <t xml:space="preserve">from CEA Switzerland, adjustments required, Connolly et al. (2013). Costs in the EU boiler &lt;25 kW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electrical boiler</t>
+    <t>from CEA Switzerland, adjustments required, Connolly et al. (2013). Costs in the EU boiler &lt;25 kW)</t>
+  </si>
+  <si>
+    <t>electrical boiler</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS31</t>
   </si>
   <si>
-    <t xml:space="preserve">from CEA Switzerland, adjustments required</t>
+    <t>from CEA Switzerland, adjustments required</t>
   </si>
   <si>
     <t>wood-furnace</t>
@@ -357,7 +353,7 @@
     <t>WOOD</t>
   </si>
   <si>
-    <t xml:space="preserve">district heating - natural gas-fired boiler</t>
+    <t>district heating - natural gas-fired boiler</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS33</t>
@@ -366,13 +362,13 @@
     <t>DISTRICT</t>
   </si>
   <si>
-    <t xml:space="preserve">district heating - heatpump - soil/water</t>
+    <t>district heating - heatpump - soil/water</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS34</t>
   </si>
   <si>
-    <t xml:space="preserve">district heating - heat pump - water/water</t>
+    <t>district heating - heat pump - water/water</t>
   </si>
   <si>
     <t>SUPPLY_HEATING_AS35</t>
@@ -504,13 +500,13 @@
     <t>SUPPLY_COOLING_AS2</t>
   </si>
   <si>
-    <t xml:space="preserve">district cooling  - Lakewater/water</t>
+    <t>district cooling  - Lakewater/water</t>
   </si>
   <si>
     <t>SUPPLY_COOLING_AS3</t>
   </si>
   <si>
-    <t xml:space="preserve">district cooling  - air/air</t>
+    <t>district cooling  - air/air</t>
   </si>
   <si>
     <t>SUPPLY_COOLING_AS4</t>
@@ -519,7 +515,7 @@
     <t>SUPPLY_ELECTRICITY_AS0</t>
   </si>
   <si>
-    <t xml:space="preserve">Swiss consumer energy mix</t>
+    <t>Swiss consumer energy mix</t>
   </si>
   <si>
     <t>SUPPLY_ELECTRICITY_AS1</t>
@@ -528,57 +524,62 @@
     <t>CITY</t>
   </si>
   <si>
-    <t xml:space="preserve">German consumer energy mix</t>
+    <t>German consumer energy mix</t>
   </si>
   <si>
     <t>SUPPLY_ELECTRICITY_AS2</t>
   </si>
   <si>
-    <t xml:space="preserve">Statistisches Bundesamt 2019 Monatsbericht über die Elektrizitätsversorgung</t>
+    <t>Statistisches Bundesamt 2019 Monatsbericht über die Elektrizitätsversorgung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="160" formatCode="0.000"/>
-    <numFmt numFmtId="161" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="65"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -611,11 +612,11 @@
   </fills>
   <borders count="7">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -630,7 +631,7 @@
       <bottom style="thin">
         <color rgb="FF3C3C3C"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -645,20 +646,20 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -673,7 +674,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -688,10 +689,10 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -701,74 +702,74 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="2" numFmtId="160" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="3" numFmtId="161" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="5" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,301 +777,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jimeno Fonseca" id="{485AE12D-3B2A-782F-47E2-F77D29024614}"/>
+  <person displayName="Jimeno Fonseca" id="{485AE12D-3B2A-782F-47E2-F77D29024614}" userId="" providerId=""/>
 </personList>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1334,12 +1055,13 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A33" personId="{485AE12D-3B2A-782F-47E2-F77D29024614}" id="{B4F5AB91-6F7C-483D-A592-89102691FFFB}" done="0">
+  <threadedComment ref="A33" personId="{485AE12D-3B2A-782F-47E2-F77D29024614}" id="{B4F5AB91-6F7C-483D-A592-89102691FFFB}">
     <text xml:space="preserve">All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </text>
   </threadedComment>
@@ -1348,7 +1070,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A33" personId="{485AE12D-3B2A-782F-47E2-F77D29024614}" id="{003A11DB-1C47-4897-99B3-6450868F736D}" done="0">
+  <threadedComment ref="A33" personId="{485AE12D-3B2A-782F-47E2-F77D29024614}" id="{003A11DB-1C47-4897-99B3-6450868F736D}">
     <text xml:space="preserve">All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </text>
   </threadedComment>
@@ -1356,26 +1078,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="51.8515625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="20.85546875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="10.28515625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="13.140625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="18.42578125"/>
-    <col customWidth="1" min="7" max="7" width="14.7109375"/>
-    <col customWidth="1" min="8" max="8" width="12.7109375"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="77.57421875"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="77.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1453,7 +1176,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="8">
         <v>1560.1736079047005</v>
@@ -1471,7 +1194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1485,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F4" s="8">
         <v>383.62177486379176</v>
@@ -1503,7 +1226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1517,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F5" s="8">
         <v>277.33124018838311</v>
@@ -1535,7 +1258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1549,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F6" s="8">
         <v>1284.8488535685769</v>
@@ -1567,7 +1290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1581,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F7" s="8">
         <v>315.92381459371086</v>
@@ -1599,7 +1322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1336,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F8" s="8">
         <v>228.39043309631546</v>
@@ -1631,7 +1354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="8">
-        <v>0.92000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="F9" s="8">
         <v>1187.0886147100982</v>
@@ -1663,7 +1386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1677,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="8">
-        <v>0.93000000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="F10" s="8">
         <v>288.74757247812278</v>
@@ -1695,7 +1418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="8">
-        <v>0.93000000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="F11" s="8">
         <v>208.74394422781521</v>
@@ -1727,7 +1450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1741,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F12" s="8">
         <v>771.18847539015621</v>
@@ -1759,7 +1482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1773,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F13" s="8">
         <v>217.51964170283497</v>
@@ -1791,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1805,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F14" s="8">
         <v>192.79711884753905</v>
@@ -1823,7 +1546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1837,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F15" s="8">
         <v>635.09639149777558</v>
@@ -1855,7 +1578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1869,7 +1592,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F16" s="8">
         <v>179.13382257880528</v>
@@ -1887,7 +1610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1901,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F17" s="8">
         <v>158.7740978744439</v>
@@ -1919,7 +1642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1933,7 +1656,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="8">
-        <v>0.93000000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="F18" s="8">
         <v>580.46444384205302</v>
@@ -1951,7 +1674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1965,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="8">
-        <v>0.94999999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="F19" s="8">
         <v>160.27763072840472</v>
@@ -1983,7 +1706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1997,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="8">
-        <v>0.94999999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="F20" s="8">
         <v>142.0610349402919</v>
@@ -2015,7 +1738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -2029,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="8">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="F21" s="8">
         <v>1208.8544135602958</v>
@@ -2047,7 +1770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -2061,7 +1784,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="8">
-        <v>0.81000000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="F22" s="8">
         <v>597.24995411269924</v>
@@ -2079,7 +1802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -2093,7 +1816,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="8">
-        <v>0.81000000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="F23" s="8">
         <v>416.03714078223885</v>
@@ -2111,7 +1834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2143,7 +1866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2175,7 +1898,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -2207,7 +1930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -2221,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="8">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="F27" s="8">
         <v>554.16570549788537</v>
@@ -2239,7 +1962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -2253,7 +1976,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="8">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="F28" s="8">
         <v>341.52970011534023</v>
@@ -2271,7 +1994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2285,7 +2008,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="8">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="F29" s="8">
         <v>212.89456459054207</v>
@@ -2303,7 +2026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -2317,7 +2040,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="8">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F30" s="8">
         <v>200</v>
@@ -2335,7 +2058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -2367,7 +2090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -2381,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="8">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F32" s="8">
         <v>367</v>
@@ -2399,7 +2122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -2413,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="8">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="F33" s="8">
         <v>200</v>
@@ -2431,7 +2154,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -2445,7 +2168,7 @@
         <v>17</v>
       </c>
       <c r="E34" s="8">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F34" s="8">
         <v>200</v>
@@ -2463,7 +2186,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2477,7 +2200,7 @@
         <v>93</v>
       </c>
       <c r="E35" s="8">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F35" s="8">
         <v>100</v>
@@ -2495,7 +2218,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -2509,7 +2232,7 @@
         <v>93</v>
       </c>
       <c r="E36" s="8">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F36" s="8">
         <v>100</v>
@@ -2527,7 +2250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -2541,7 +2264,7 @@
         <v>93</v>
       </c>
       <c r="E37" s="8">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F37" s="8">
         <v>100</v>
@@ -2560,35 +2283,34 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="51.8515625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="23.140625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="10.28515625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="13.140625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="18.42578125"/>
-    <col customWidth="1" min="7" max="7" width="14.7109375"/>
-    <col customWidth="1" min="8" max="8" width="12.7109375"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="77.57421875"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="77.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +2374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -2666,7 +2388,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="8">
         <v>1560.1736079047005</v>
@@ -2684,7 +2406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2698,7 +2420,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F4" s="8">
         <v>383.62177486379176</v>
@@ -2716,7 +2438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2730,7 +2452,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F5" s="8">
         <v>277.33124018838311</v>
@@ -2748,7 +2470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2762,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F6" s="8">
         <v>1284.8488535685769</v>
@@ -2780,7 +2502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2794,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F7" s="8">
         <v>315.92381459371086</v>
@@ -2812,7 +2534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2826,7 +2548,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F8" s="8">
         <v>228.39043309631546</v>
@@ -2844,7 +2566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,7 +2580,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="8">
-        <v>0.92000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="F9" s="8">
         <v>1187.0886147100982</v>
@@ -2876,7 +2598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2890,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="8">
-        <v>0.93000000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="F10" s="8">
         <v>288.74757247812278</v>
@@ -2908,7 +2630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="8">
-        <v>0.93000000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="F11" s="8">
         <v>208.74394422781521</v>
@@ -2940,7 +2662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2954,7 +2676,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F12" s="8">
         <v>771.18847539015621</v>
@@ -2972,7 +2694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,7 +2708,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F13" s="8">
         <v>217.51964170283497</v>
@@ -3004,7 +2726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3018,7 +2740,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="8">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F14" s="8">
         <v>192.79711884753905</v>
@@ -3036,7 +2758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -3050,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F15" s="8">
         <v>635.09639149777558</v>
@@ -3068,7 +2790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3082,7 +2804,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F16" s="8">
         <v>179.13382257880528</v>
@@ -3100,7 +2822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -3114,7 +2836,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="8">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="F17" s="8">
         <v>158.7740978744439</v>
@@ -3132,7 +2854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3146,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="8">
-        <v>0.93000000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="F18" s="8">
         <v>580.46444384205302</v>
@@ -3164,7 +2886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -3178,7 +2900,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="8">
-        <v>0.94999999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="F19" s="8">
         <v>160.27763072840472</v>
@@ -3196,7 +2918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3210,7 +2932,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="8">
-        <v>0.94999999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="F20" s="8">
         <v>142.0610349402919</v>
@@ -3228,7 +2950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -3242,7 +2964,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="8">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="F21" s="8">
         <v>1208.8544135602958</v>
@@ -3260,7 +2982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -3274,7 +2996,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="8">
-        <v>0.81000000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="F22" s="8">
         <v>597.24995411269924</v>
@@ -3292,7 +3014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -3306,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="8">
-        <v>0.81000000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="F23" s="8">
         <v>416.03714078223885</v>
@@ -3324,7 +3046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,7 +3078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,7 +3110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -3420,7 +3142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -3434,7 +3156,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="8">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="F27" s="8">
         <v>554.16570549788537</v>
@@ -3452,7 +3174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -3466,7 +3188,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="8">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="F28" s="8">
         <v>341.52970011534023</v>
@@ -3484,7 +3206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3498,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="8">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="F29" s="8">
         <v>212.89456459054207</v>
@@ -3516,7 +3238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -3530,7 +3252,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="8">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F30" s="8">
         <v>200</v>
@@ -3548,7 +3270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -3580,7 +3302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -3594,7 +3316,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="8">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F32" s="8">
         <v>367</v>
@@ -3612,7 +3334,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -3626,7 +3348,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="8">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="F33" s="8">
         <v>200</v>
@@ -3644,7 +3366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -3658,7 +3380,7 @@
         <v>17</v>
       </c>
       <c r="E34" s="8">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F34" s="8">
         <v>200</v>
@@ -3676,7 +3398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,7 +3412,7 @@
         <v>93</v>
       </c>
       <c r="E35" s="8">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F35" s="8">
         <v>100</v>
@@ -3708,7 +3430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -3722,7 +3444,7 @@
         <v>93</v>
       </c>
       <c r="E36" s="8">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F36" s="8">
         <v>100</v>
@@ -3740,7 +3462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -3754,7 +3476,7 @@
         <v>93</v>
       </c>
       <c r="E37" s="8">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F37" s="8">
         <v>100</v>
@@ -3773,36 +3495,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="92.42578125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="21.140625"/>
-    <col customWidth="1" min="3" max="3" width="21.140625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="10.28515625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="13.140625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" width="18.42578125"/>
-    <col customWidth="1" min="8" max="8" width="14.7109375"/>
-    <col customWidth="1" min="9" max="9" width="12.7109375"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="51.7109375"/>
+    <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3837,7 +3558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3872,7 +3593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,7 +3610,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="8">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="G3" s="8">
         <v>200</v>
@@ -3907,7 +3628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -3942,7 +3663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -3959,7 +3680,7 @@
         <v>93</v>
       </c>
       <c r="F5" s="4">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="G5" s="8">
         <v>200</v>
@@ -3977,7 +3698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>142</v>
       </c>
@@ -3994,7 +3715,7 @@
         <v>93</v>
       </c>
       <c r="F6" s="7">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="G6" s="8">
         <v>200</v>
@@ -4013,34 +3734,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="92.42578125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="23.5703125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="10.28515625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="13.140625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="18.42578125"/>
-    <col customWidth="1" min="7" max="7" width="14.7109375"/>
-    <col customWidth="1" min="8" max="8" width="12.7109375"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="51.7109375"/>
+    <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="70.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4072,7 +3792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4104,7 +3824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
@@ -4118,7 +3838,7 @@
         <v>147</v>
       </c>
       <c r="E3" s="14">
-        <v>0.98999999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
@@ -4136,7 +3856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>148</v>
       </c>
@@ -4150,7 +3870,7 @@
         <v>147</v>
       </c>
       <c r="E4" s="17">
-        <v>0.93999999999999995</v>
+        <v>0.94</v>
       </c>
       <c r="F4" s="17">
         <v>1</v>
@@ -4169,9 +3889,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/cea/databases/DE/assemblies/SUPPLY.xlsx
+++ b/cea/databases/DE/assemblies/SUPPLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6125F35B-4620-44B7-8E6C-9EE7A6902443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD4D62-9154-4575-970E-4192FD06E687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="1470" windowWidth="16200" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="156">
   <si>
     <t>Description</t>
   </si>
@@ -530,7 +530,22 @@
     <t>SUPPLY_ELECTRICITY_AS2</t>
   </si>
   <si>
-    <t>Statistisches Bundesamt 2019 Monatsbericht über die Elektrizitätsversorgung</t>
+    <t>from https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-generation-electricity-and</t>
+  </si>
+  <si>
+    <t>district heating - heat pump - seawater/water</t>
+  </si>
+  <si>
+    <t>district heating - heatpump - air/water</t>
+  </si>
+  <si>
+    <t>Statistisches Bundesamt 2019 Monatsbericht über die Elektrizitätsversorgung, educated guess</t>
+  </si>
+  <si>
+    <t>from https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-generation-electricity-and and gross to net heating value conversion. Exchange rate: 1 EUR to 1.11 Dollars</t>
+  </si>
+  <si>
+    <t>from https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-generation-electricity-and Exchange rate: 1 EUR to 1.11 Dollars</t>
   </si>
 </sst>
 </file>
@@ -541,11 +556,18 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -583,6 +605,30 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -610,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -691,78 +737,86 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1081,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,14 +2253,16 @@
       <c r="D35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="8">
-        <v>0.6</v>
+      <c r="E35" s="22">
+        <f>1.03 * 950/1050</f>
+        <v>0.9319047619047619</v>
       </c>
       <c r="F35" s="8">
-        <v>100</v>
+        <f>60 * 1.11</f>
+        <v>66.600000000000009</v>
       </c>
       <c r="G35" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
@@ -2214,13 +2270,13 @@
       <c r="I35" s="6">
         <v>5</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>78</v>
+      <c r="J35" s="21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>94</v>
+      <c r="A36" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>95</v>
@@ -2232,13 +2288,14 @@
         <v>93</v>
       </c>
       <c r="E36" s="8">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="F36" s="8">
-        <v>100</v>
+        <f>910*1.11</f>
+        <v>1010.1000000000001</v>
       </c>
       <c r="G36" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H36" s="6">
         <v>1</v>
@@ -2246,13 +2303,13 @@
       <c r="I36" s="6">
         <v>5</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>96</v>
+      <c r="J36" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>97</v>
@@ -2264,13 +2321,14 @@
         <v>93</v>
       </c>
       <c r="E37" s="8">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="F37" s="8">
-        <v>100</v>
+        <f>510*1.1</f>
+        <v>561</v>
       </c>
       <c r="G37" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
@@ -2278,8 +2336,8 @@
       <c r="I37" s="6">
         <v>5</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>78</v>
+      <c r="J37" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2293,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,14 +3469,15 @@
       <c r="D35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="8">
-        <v>0.6</v>
+      <c r="E35" s="22">
+        <f>1.03 * 950/1050</f>
+        <v>0.9319047619047619</v>
       </c>
       <c r="F35" s="8">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G35" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
@@ -3426,8 +3485,8 @@
       <c r="I35" s="6">
         <v>5</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>78</v>
+      <c r="J35" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3444,13 +3503,13 @@
         <v>93</v>
       </c>
       <c r="E36" s="8">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="F36" s="8">
-        <v>100</v>
+        <v>910</v>
       </c>
       <c r="G36" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H36" s="6">
         <v>1</v>
@@ -3458,8 +3517,8 @@
       <c r="I36" s="6">
         <v>5</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>78</v>
+      <c r="J36" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3476,13 +3535,13 @@
         <v>93</v>
       </c>
       <c r="E37" s="8">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="F37" s="8">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="G37" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
@@ -3490,8 +3549,8 @@
       <c r="I37" s="6">
         <v>5</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>78</v>
+      <c r="J37" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -3744,7 +3803,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,28 +3858,28 @@
       <c r="B2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="16">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="17">
+        <v>20</v>
+      </c>
+      <c r="H2" s="17">
         <v>1</v>
       </c>
-      <c r="I2" s="6">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="17">
+        <v>5</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3831,48 +3890,48 @@
       <c r="B3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="19">
         <v>0.99</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="20">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="17">
+        <v>20</v>
+      </c>
+      <c r="H3" s="17">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
-        <v>5</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="19">
         <v>0.94</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="20">
         <v>1</v>
       </c>
       <c r="G4" s="17">
@@ -3884,12 +3943,12 @@
       <c r="I4" s="17">
         <v>5</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>150</v>
+      <c r="J4" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cea/databases/DE/assemblies/SUPPLY.xlsx
+++ b/cea/databases/DE/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD4D62-9154-4575-970E-4192FD06E687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E152CA5-A1EB-BB4E-A80E-61C98D6D38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="1470" windowWidth="16200" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5740" yWindow="1480" windowWidth="41340" windowHeight="24520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -47,11 +46,18 @@
   <commentList>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{B4F5AB91-6F7C-483D-A592-89102691FFFB}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -66,11 +72,18 @@
   <commentList>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{003A11DB-1C47-4897-99B3-6450868F736D}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -78,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="168">
   <si>
     <t>Description</t>
   </si>
@@ -515,9 +528,6 @@
     <t>SUPPLY_ELECTRICITY_AS0</t>
   </si>
   <si>
-    <t>Swiss consumer energy mix</t>
-  </si>
-  <si>
     <t>SUPPLY_ELECTRICITY_AS1</t>
   </si>
   <si>
@@ -527,9 +537,6 @@
     <t>German consumer energy mix</t>
   </si>
   <si>
-    <t>SUPPLY_ELECTRICITY_AS2</t>
-  </si>
-  <si>
     <t>from https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-generation-electricity-and</t>
   </si>
   <si>
@@ -546,6 +553,48 @@
   </si>
   <si>
     <t>from https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-generation-electricity-and Exchange rate: 1 EUR to 1.11 Dollars</t>
+  </si>
+  <si>
+    <t>secondary_components</t>
+  </si>
+  <si>
+    <t>tertiary_components</t>
+  </si>
+  <si>
+    <t>primary_components</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BO2</t>
+  </si>
+  <si>
+    <t>BO4</t>
+  </si>
+  <si>
+    <t>BO5</t>
+  </si>
+  <si>
+    <t>BO6</t>
+  </si>
+  <si>
+    <t>BO1</t>
+  </si>
+  <si>
+    <t>HP3</t>
+  </si>
+  <si>
+    <t>HP2</t>
+  </si>
+  <si>
+    <t>HP1</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>CT1</t>
   </si>
 </sst>
 </file>
@@ -556,7 +605,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,38 +621,45 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="65"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -629,8 +685,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,8 +722,20 @@
         <bgColor indexed="49"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -737,6 +816,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="59"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -744,7 +853,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -817,6 +926,18 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1133,1214 +1254,1549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="77.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="J2" s="6">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="6">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="6">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
         <v>0.7</v>
       </c>
-      <c r="F3" s="8">
+      <c r="I3" s="8">
         <v>1560.1736079047005</v>
       </c>
-      <c r="G3" s="6">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6">
         <v>3.5</v>
       </c>
-      <c r="I3" s="6">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="6">
+        <v>5</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8">
         <v>0.7</v>
       </c>
-      <c r="F4" s="8">
+      <c r="I4" s="8">
         <v>383.62177486379176</v>
       </c>
-      <c r="G4" s="6">
-        <v>20</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="J4" s="6">
+        <v>20</v>
+      </c>
+      <c r="K4" s="6">
         <v>3.5</v>
       </c>
-      <c r="I4" s="6">
-        <v>5</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="6">
+        <v>5</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8">
         <v>0.7</v>
       </c>
-      <c r="F5" s="8">
+      <c r="I5" s="8">
         <v>277.33124018838311</v>
       </c>
-      <c r="G5" s="6">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="J5" s="6">
+        <v>20</v>
+      </c>
+      <c r="K5" s="6">
         <v>3.5</v>
       </c>
-      <c r="I5" s="6">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="L5" s="6">
+        <v>5</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8">
         <v>0.85</v>
       </c>
-      <c r="F6" s="8">
+      <c r="I6" s="8">
         <v>1284.8488535685769</v>
       </c>
-      <c r="G6" s="6">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="J6" s="6">
+        <v>20</v>
+      </c>
+      <c r="K6" s="6">
         <v>3.5</v>
       </c>
-      <c r="I6" s="6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8">
         <v>0.85</v>
       </c>
-      <c r="F7" s="8">
+      <c r="I7" s="8">
         <v>315.92381459371086</v>
       </c>
-      <c r="G7" s="6">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="J7" s="6">
+        <v>20</v>
+      </c>
+      <c r="K7" s="6">
         <v>3.5</v>
       </c>
-      <c r="I7" s="6">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="6">
+        <v>5</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8">
         <v>0.85</v>
       </c>
-      <c r="F8" s="8">
+      <c r="I8" s="8">
         <v>228.39043309631546</v>
       </c>
-      <c r="G8" s="6">
-        <v>20</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="J8" s="6">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6">
         <v>3.5</v>
       </c>
-      <c r="I8" s="6">
-        <v>5</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="6">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="G9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8">
         <v>0.92</v>
       </c>
-      <c r="F9" s="8">
+      <c r="I9" s="8">
         <v>1187.0886147100982</v>
       </c>
-      <c r="G9" s="6">
-        <v>20</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
+        <v>20</v>
+      </c>
+      <c r="K9" s="6">
         <v>3.5</v>
       </c>
-      <c r="I9" s="6">
-        <v>5</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8">
         <v>0.93</v>
       </c>
-      <c r="F10" s="8">
+      <c r="I10" s="8">
         <v>288.74757247812278</v>
       </c>
-      <c r="G10" s="6">
-        <v>20</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="J10" s="6">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6">
         <v>3.5</v>
       </c>
-      <c r="I10" s="6">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="6">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8">
         <v>0.93</v>
       </c>
-      <c r="F11" s="8">
+      <c r="I11" s="8">
         <v>208.74394422781521</v>
       </c>
-      <c r="G11" s="6">
-        <v>20</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="J11" s="6">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6">
         <v>3.5</v>
       </c>
-      <c r="I11" s="6">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8">
         <v>0.7</v>
       </c>
-      <c r="F12" s="8">
+      <c r="I12" s="8">
         <v>771.18847539015621</v>
       </c>
-      <c r="G12" s="6">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="J12" s="6">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6">
         <v>3</v>
       </c>
-      <c r="I12" s="6">
-        <v>5</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="6">
+        <v>5</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="G13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8">
         <v>0.7</v>
       </c>
-      <c r="F13" s="8">
+      <c r="I13" s="8">
         <v>217.51964170283497</v>
       </c>
-      <c r="G13" s="6">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="J13" s="6">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6">
         <v>3</v>
       </c>
-      <c r="I13" s="6">
-        <v>5</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="L13" s="6">
+        <v>5</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8">
         <v>0.7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="I14" s="8">
         <v>192.79711884753905</v>
       </c>
-      <c r="G14" s="6">
-        <v>20</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="J14" s="6">
+        <v>20</v>
+      </c>
+      <c r="K14" s="6">
         <v>3</v>
       </c>
-      <c r="I14" s="6">
-        <v>5</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="6">
+        <v>5</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="G15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="8">
         <v>0.85</v>
       </c>
-      <c r="F15" s="8">
+      <c r="I15" s="8">
         <v>635.09639149777558</v>
       </c>
-      <c r="G15" s="6">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="J15" s="6">
+        <v>20</v>
+      </c>
+      <c r="K15" s="6">
         <v>3</v>
       </c>
-      <c r="I15" s="6">
-        <v>5</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="L15" s="6">
+        <v>5</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="G16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="8">
         <v>0.85</v>
       </c>
-      <c r="F16" s="8">
+      <c r="I16" s="8">
         <v>179.13382257880528</v>
       </c>
-      <c r="G16" s="6">
-        <v>20</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="J16" s="6">
+        <v>20</v>
+      </c>
+      <c r="K16" s="6">
         <v>3</v>
       </c>
-      <c r="I16" s="6">
-        <v>5</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="6">
+        <v>5</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="8">
         <v>0.85</v>
       </c>
-      <c r="F17" s="8">
+      <c r="I17" s="8">
         <v>158.7740978744439</v>
       </c>
-      <c r="G17" s="6">
-        <v>20</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="J17" s="6">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6">
         <v>3</v>
       </c>
-      <c r="I17" s="6">
-        <v>5</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="L17" s="6">
+        <v>5</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="G18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8">
         <v>0.93</v>
       </c>
-      <c r="F18" s="8">
+      <c r="I18" s="8">
         <v>580.46444384205302</v>
       </c>
-      <c r="G18" s="6">
-        <v>20</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="J18" s="6">
+        <v>20</v>
+      </c>
+      <c r="K18" s="6">
         <v>3</v>
       </c>
-      <c r="I18" s="6">
-        <v>5</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="8">
         <v>0.95</v>
       </c>
-      <c r="F19" s="8">
+      <c r="I19" s="8">
         <v>160.27763072840472</v>
       </c>
-      <c r="G19" s="6">
-        <v>20</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="J19" s="6">
+        <v>20</v>
+      </c>
+      <c r="K19" s="6">
         <v>3</v>
       </c>
-      <c r="I19" s="6">
-        <v>5</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="G20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="8">
         <v>0.95</v>
       </c>
-      <c r="F20" s="8">
+      <c r="I20" s="8">
         <v>142.0610349402919</v>
       </c>
-      <c r="G20" s="6">
-        <v>20</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="J20" s="6">
+        <v>20</v>
+      </c>
+      <c r="K20" s="6">
         <v>3</v>
       </c>
-      <c r="I20" s="6">
-        <v>5</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="L20" s="6">
+        <v>5</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="G21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="8">
         <v>0.9</v>
       </c>
-      <c r="F21" s="8">
+      <c r="I21" s="8">
         <v>1208.8544135602958</v>
       </c>
-      <c r="G21" s="6">
-        <v>20</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="J21" s="6">
+        <v>20</v>
+      </c>
+      <c r="K21" s="6">
         <v>6</v>
       </c>
-      <c r="I21" s="6">
-        <v>5</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="L21" s="6">
+        <v>5</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="G22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="8">
         <v>0.81</v>
       </c>
-      <c r="F22" s="8">
+      <c r="I22" s="8">
         <v>597.24995411269924</v>
       </c>
-      <c r="G22" s="6">
-        <v>20</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="J22" s="6">
+        <v>20</v>
+      </c>
+      <c r="K22" s="6">
         <v>6</v>
       </c>
-      <c r="I22" s="6">
-        <v>5</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="L22" s="6">
+        <v>5</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="G23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="8">
         <v>0.81</v>
       </c>
-      <c r="F23" s="8">
+      <c r="I23" s="8">
         <v>416.03714078223885</v>
       </c>
-      <c r="G23" s="6">
-        <v>20</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="J23" s="6">
+        <v>20</v>
+      </c>
+      <c r="K23" s="6">
         <v>6</v>
       </c>
-      <c r="I23" s="6">
-        <v>5</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="L23" s="6">
+        <v>5</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="G24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8">
         <v>4.25</v>
       </c>
-      <c r="F24" s="8">
+      <c r="I24" s="8">
         <v>845.3319763891717</v>
       </c>
-      <c r="G24" s="6">
-        <v>20</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="J24" s="6">
+        <v>20</v>
+      </c>
+      <c r="K24" s="13">
         <v>0.58004640371229699</v>
       </c>
-      <c r="I24" s="6">
-        <v>5</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="L24" s="6">
+        <v>5</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="G25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="8">
         <v>4.25</v>
       </c>
-      <c r="F25" s="8">
+      <c r="I25" s="8">
         <v>520.73234276409528</v>
       </c>
-      <c r="G25" s="6">
-        <v>20</v>
-      </c>
-      <c r="H25" s="13">
+      <c r="J25" s="6">
+        <v>20</v>
+      </c>
+      <c r="K25" s="13">
         <v>0.94161958568738224</v>
       </c>
-      <c r="I25" s="6">
-        <v>5</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="L25" s="6">
+        <v>5</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="G26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="8">
         <v>4.25</v>
       </c>
-      <c r="F26" s="8">
+      <c r="I26" s="8">
         <v>324.59963362507636</v>
       </c>
-      <c r="G26" s="6">
-        <v>20</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="J26" s="6">
+        <v>20</v>
+      </c>
+      <c r="K26" s="13">
         <v>1.5105740181268883</v>
       </c>
-      <c r="I26" s="6">
-        <v>5</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="L26" s="6">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="G27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="8">
         <v>3.6</v>
       </c>
-      <c r="F27" s="8">
+      <c r="I27" s="8">
         <v>554.16570549788537</v>
       </c>
-      <c r="G27" s="6">
-        <v>20</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="J27" s="6">
+        <v>20</v>
+      </c>
+      <c r="K27" s="13">
         <v>1.1838440111420612</v>
       </c>
-      <c r="I27" s="6">
-        <v>5</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="L27" s="6">
+        <v>5</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="G28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="8">
         <v>3.6</v>
       </c>
-      <c r="F28" s="8">
+      <c r="I28" s="8">
         <v>341.52970011534023</v>
       </c>
-      <c r="G28" s="6">
-        <v>20</v>
-      </c>
-      <c r="H28" s="13">
+      <c r="J28" s="6">
+        <v>20</v>
+      </c>
+      <c r="K28" s="13">
         <v>1.9209039548022599</v>
       </c>
-      <c r="I28" s="6">
-        <v>5</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="L28" s="6">
+        <v>5</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="G29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="8">
         <v>3.6</v>
       </c>
-      <c r="F29" s="8">
+      <c r="I29" s="8">
         <v>212.89456459054207</v>
       </c>
-      <c r="G29" s="6">
-        <v>20</v>
-      </c>
-      <c r="H29" s="13">
+      <c r="J29" s="6">
+        <v>20</v>
+      </c>
+      <c r="K29" s="13">
         <v>3.0815523773270255</v>
       </c>
-      <c r="I29" s="6">
-        <v>5</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="L29" s="6">
+        <v>5</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="G30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="8">
         <v>2.7</v>
       </c>
-      <c r="F30" s="8">
+      <c r="I30" s="8">
         <v>200</v>
       </c>
-      <c r="G30" s="6">
-        <v>20</v>
-      </c>
-      <c r="H30" s="6">
+      <c r="J30" s="6">
+        <v>20</v>
+      </c>
+      <c r="K30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="6">
-        <v>5</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="6">
+        <v>5</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="G31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="8">
         <v>3</v>
       </c>
-      <c r="F31" s="8">
+      <c r="I31" s="8">
         <v>200</v>
       </c>
-      <c r="G31" s="6">
-        <v>20</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="J31" s="6">
+        <v>20</v>
+      </c>
+      <c r="K31" s="6">
         <v>1</v>
       </c>
-      <c r="I31" s="6">
-        <v>5</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="6">
+        <v>5</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="G32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8">
         <v>0.6</v>
       </c>
-      <c r="F32" s="8">
+      <c r="I32" s="8">
         <v>367</v>
       </c>
-      <c r="G32" s="6">
-        <v>20</v>
-      </c>
-      <c r="H32" s="6">
+      <c r="J32" s="6">
+        <v>20</v>
+      </c>
+      <c r="K32" s="6">
         <v>1</v>
       </c>
-      <c r="I32" s="6">
-        <v>5</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="L32" s="6">
+        <v>5</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="G33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="8">
         <v>0.9</v>
       </c>
-      <c r="F33" s="8">
+      <c r="I33" s="8">
         <v>200</v>
       </c>
-      <c r="G33" s="6">
-        <v>20</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="J33" s="6">
+        <v>20</v>
+      </c>
+      <c r="K33" s="6">
         <v>1</v>
       </c>
-      <c r="I33" s="6">
-        <v>5</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="L33" s="6">
+        <v>5</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="G34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="8">
         <v>0.6</v>
       </c>
-      <c r="F34" s="8">
+      <c r="I34" s="8">
         <v>200</v>
       </c>
-      <c r="G34" s="6">
-        <v>20</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="J34" s="6">
+        <v>20</v>
+      </c>
+      <c r="K34" s="6">
         <v>1</v>
       </c>
-      <c r="I34" s="6">
-        <v>5</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="6">
+        <v>5</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="22">
+      <c r="H35" s="22">
         <f>1.03 * 950/1050</f>
         <v>0.9319047619047619</v>
       </c>
-      <c r="F35" s="8">
+      <c r="I35" s="8">
         <f>60 * 1.11</f>
         <v>66.600000000000009</v>
       </c>
-      <c r="G35" s="6">
+      <c r="J35" s="6">
         <v>25</v>
       </c>
-      <c r="H35" s="6">
+      <c r="K35" s="6">
         <v>1</v>
       </c>
-      <c r="I35" s="6">
-        <v>5</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35" s="6">
+        <v>5</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="8">
+      <c r="H36" s="8">
         <v>3.5</v>
       </c>
-      <c r="F36" s="8">
+      <c r="I36" s="8">
         <f>910*1.11</f>
         <v>1010.1000000000001</v>
       </c>
-      <c r="G36" s="6">
+      <c r="J36" s="6">
         <v>25</v>
       </c>
-      <c r="H36" s="6">
+      <c r="K36" s="6">
         <v>1</v>
       </c>
-      <c r="I36" s="6">
-        <v>5</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L36" s="6">
+        <v>5</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="8">
+      <c r="H37" s="8">
         <v>3.4</v>
       </c>
-      <c r="F37" s="8">
+      <c r="I37" s="8">
         <f>510*1.1</f>
         <v>561</v>
       </c>
-      <c r="G37" s="6">
+      <c r="J37" s="6">
         <v>25</v>
       </c>
-      <c r="H37" s="6">
+      <c r="K37" s="6">
         <v>1</v>
       </c>
-      <c r="I37" s="6">
-        <v>5</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>155</v>
+      <c r="L37" s="6">
+        <v>5</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -2355,20 +2811,20 @@
       <selection activeCell="C35" sqref="C35:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="77.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2400,7 +2856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2432,7 +2888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -2464,7 +2920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2496,7 +2952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2528,7 +2984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2560,7 +3016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,7 +3048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2624,7 +3080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +3112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2688,7 +3144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2720,7 +3176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2752,7 +3208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,7 +3240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2816,7 +3272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -2848,7 +3304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2880,7 +3336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,7 +3368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2944,7 +3400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -2976,7 +3432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3008,7 +3464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -3040,7 +3496,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -3072,7 +3528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -3104,7 +3560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -3136,7 +3592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -3168,7 +3624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -3200,7 +3656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -3232,7 +3688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -3264,7 +3720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3296,7 +3752,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -3328,7 +3784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -3360,7 +3816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -3392,7 +3848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -3424,7 +3880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -3456,7 +3912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -3486,10 +3942,10 @@
         <v>5</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -3518,10 +3974,10 @@
         <v>5</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -3550,7 +4006,7 @@
         <v>5</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3562,233 +4018,287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="J2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="K2" s="6">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
-        <v>5</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="6">
+        <v>5</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
         <v>2.7</v>
       </c>
-      <c r="G3" s="8">
+      <c r="J3" s="8">
         <v>200</v>
       </c>
-      <c r="H3" s="6">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="K3" s="6">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="6">
-        <v>5</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="6">
+        <v>5</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="8">
+      <c r="J4" s="8">
         <v>200</v>
       </c>
-      <c r="H4" s="6">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="K4" s="6">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="6">
-        <v>5</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="6">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="4">
+      <c r="I5" s="4">
         <v>3.2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="J5" s="8">
         <v>200</v>
       </c>
-      <c r="H5" s="6">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="K5" s="6">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="6">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="7">
+      <c r="I6" s="7">
         <v>2.8</v>
       </c>
-      <c r="G6" s="8">
+      <c r="J6" s="8">
         <v>200</v>
       </c>
-      <c r="H6" s="6">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="K6" s="6">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3800,26 +4310,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3851,7 +4361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3883,21 +4393,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>145</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="19">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="F3" s="20">
         <v>1</v>
@@ -3912,39 +4422,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0.94</v>
-      </c>
-      <c r="F4" s="20">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17">
-        <v>20</v>
-      </c>
-      <c r="H4" s="17">
-        <v>1</v>
-      </c>
-      <c r="I4" s="17">
-        <v>5</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/DE/assemblies/SUPPLY.xlsx
+++ b/cea/databases/DE/assemblies/SUPPLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E152CA5-A1EB-BB4E-A80E-61C98D6D38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B57E32-63E6-3B47-99A6-CDD4A36F7BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="1480" windowWidth="41340" windowHeight="24520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5740" yWindow="1480" windowWidth="41340" windowHeight="24520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,6 +78,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="169">
   <si>
     <t>Description</t>
   </si>
@@ -595,6 +597,9 @@
   </si>
   <si>
     <t>CT1</t>
+  </si>
+  <si>
+    <t>BO7</t>
   </si>
 </sst>
 </file>
@@ -697,7 +702,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,12 +731,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -853,7 +852,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -936,7 +935,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1256,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2104,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>157</v>
@@ -2143,7 +2145,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>157</v>
@@ -2184,7 +2186,7 @@
         <v>61</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>157</v>
@@ -2224,7 +2226,7 @@
       <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="29" t="s">
         <v>165</v>
       </c>
       <c r="D24" s="27" t="s">
@@ -2265,7 +2267,7 @@
       <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="29" t="s">
         <v>165</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -2306,7 +2308,7 @@
       <c r="B26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>165</v>
       </c>
       <c r="D26" s="27" t="s">
@@ -2348,7 +2350,7 @@
         <v>71</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>157</v>
@@ -2389,7 +2391,7 @@
         <v>73</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>157</v>
@@ -2430,7 +2432,7 @@
         <v>75</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>157</v>
@@ -2470,7 +2472,7 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="29" t="s">
         <v>163</v>
       </c>
       <c r="D30" s="27" t="s">
@@ -2511,7 +2513,7 @@
       <c r="B31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="29" t="s">
         <v>164</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -2552,7 +2554,7 @@
       <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="29" t="s">
         <v>159</v>
       </c>
       <c r="D32" s="27" t="s">
@@ -2593,7 +2595,7 @@
       <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="29" t="s">
         <v>160</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -2634,7 +2636,7 @@
       <c r="B34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="29" t="s">
         <v>161</v>
       </c>
       <c r="D34" s="27" t="s">
@@ -2675,7 +2677,7 @@
       <c r="B35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="29" t="s">
         <v>162</v>
       </c>
       <c r="D35" s="27" t="s">
@@ -2719,7 +2721,7 @@
         <v>95</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>157</v>
@@ -2760,7 +2762,7 @@
       <c r="B37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="29" t="s">
         <v>164</v>
       </c>
       <c r="D37" s="27" t="s">
@@ -4312,7 +4314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/DE/assemblies/SUPPLY.xlsx
+++ b/cea/databases/DE/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/assemblies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B57E32-63E6-3B47-99A6-CDD4A36F7BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F2992C-8A81-4345-84B3-9A8BAD2CE946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="1480" windowWidth="41340" windowHeight="24520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19190" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="1" r:id="rId1"/>
@@ -46,19 +46,11 @@
   <commentList>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{B4F5AB91-6F7C-483D-A592-89102691FFFB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -73,19 +65,11 @@
   <commentList>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{003A11DB-1C47-4897-99B3-6450868F736D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -93,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="177">
   <si>
     <t>Description</t>
   </si>
@@ -600,6 +584,30 @@
   </si>
   <si>
     <t>BO7</t>
+  </si>
+  <si>
+    <t>condensing boiler + solar thermal collector</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS36</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>solar thermal collector</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS37</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>Flatplate collector</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS36</t>
   </si>
 </sst>
 </file>
@@ -734,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -845,6 +853,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3C3C3C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3C3C3C"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -852,7 +891,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -935,11 +974,38 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1256,27 +1322,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
+    <col min="13" max="13" width="77.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1440,7 +1506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1522,7 +1588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,7 +1670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1727,7 +1793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1768,7 +1834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1809,7 +1875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1850,7 +1916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1891,7 +1957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +1998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +2039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2014,7 +2080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -2055,7 +2121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2096,7 +2162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -2137,7 +2203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -2178,7 +2244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -2219,7 +2285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2260,7 +2326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2301,7 +2367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -2342,7 +2408,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -2383,7 +2449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -2424,7 +2490,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2465,7 +2531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -2506,7 +2572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -2547,7 +2613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -2588,7 +2654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -2629,7 +2695,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -2670,7 +2736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2713,7 +2779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
         <v>150</v>
       </c>
@@ -2755,7 +2821,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
         <v>149</v>
       </c>
@@ -2795,6 +2861,89 @@
       </c>
       <c r="M37" s="24" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <f>142+600</f>
+        <v>742</v>
+      </c>
+      <c r="J38" s="6">
+        <v>20</v>
+      </c>
+      <c r="K38" s="6">
+        <v>3</v>
+      </c>
+      <c r="L38" s="6">
+        <v>5</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>600</v>
+      </c>
+      <c r="J39" s="36">
+        <v>20</v>
+      </c>
+      <c r="K39" s="36">
+        <v>3</v>
+      </c>
+      <c r="L39" s="36">
+        <v>5</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2807,26 +2956,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:J37"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="77.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +3007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +3039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -2922,7 +3071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2954,7 +3103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2986,7 +3135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3018,7 +3167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3050,7 +3199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3082,7 +3231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3114,7 +3263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3146,7 +3295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,7 +3327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3210,7 +3359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3242,7 +3391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3274,7 +3423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -3306,7 +3455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3338,7 +3487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -3370,7 +3519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3402,7 +3551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -3434,7 +3583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3466,7 +3615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -3498,7 +3647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -3530,7 +3679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -3562,7 +3711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -3594,7 +3743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -3626,7 +3775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -3658,7 +3807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -3690,7 +3839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -3722,7 +3871,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3754,7 +3903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -3786,7 +3935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -3818,7 +3967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -3850,7 +3999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -3882,7 +4031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,7 +4063,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -3947,7 +4096,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -3979,7 +4128,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -4009,6 +4158,38 @@
       </c>
       <c r="J37" s="21" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="38">
+        <v>600</v>
+      </c>
+      <c r="G38" s="36">
+        <v>20</v>
+      </c>
+      <c r="H38" s="36">
+        <v>3</v>
+      </c>
+      <c r="I38" s="36">
+        <v>5</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4023,24 +4204,24 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="51.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4084,7 +4265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4128,7 +4309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -4172,7 +4353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -4216,7 +4397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -4260,7 +4441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>142</v>
       </c>
@@ -4315,23 +4496,23 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="70.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4363,7 +4544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4395,7 +4576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>147</v>
       </c>

--- a/cea/databases/DE/assemblies/SUPPLY.xlsx
+++ b/cea/databases/DE/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F2992C-8A81-4345-84B3-9A8BAD2CE946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD72D05-7113-4FEE-ACFC-DA0F13866987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19190" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="178">
   <si>
     <t>Description</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>SUPPLY_HOTWATER_AS36</t>
+  </si>
+  <si>
+    <t>BO3</t>
   </si>
 </sst>
 </file>
@@ -989,22 +992,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,25 +1327,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" customWidth="1"/>
-    <col min="13" max="13" width="77.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="77.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>157</v>
@@ -1957,7 +1960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>157</v>
@@ -1998,7 +2001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>157</v>
@@ -2039,7 +2042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>150</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>149</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>169</v>
       </c>
@@ -2871,10 +2874,10 @@
         <v>170</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>157</v>
@@ -2905,7 +2908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>172</v>
       </c>
@@ -2958,24 +2961,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="10" max="10" width="77.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="77.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -4031,7 +4034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>175</v>
       </c>
@@ -4207,21 +4210,21 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="51.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -4441,7 +4444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>142</v>
       </c>
@@ -4499,20 +4502,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="10" max="10" width="70.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="70.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>147</v>
       </c>

--- a/cea/databases/DE/assemblies/SUPPLY.xlsx
+++ b/cea/databases/DE/assemblies/SUPPLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD72D05-7113-4FEE-ACFC-DA0F13866987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E71567-A3C8-49FE-81B0-418FB61DF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="1" r:id="rId1"/>
@@ -1327,13 +1327,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -2680,7 +2680,7 @@
         <v>17</v>
       </c>
       <c r="H33" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I33" s="8">
         <v>200</v>
@@ -2961,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
